--- a/share.xlsx
+++ b/share.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROZ\PROGRAMMING\SERVERS\LOCAL-SERVER\PYTHON[DJANGO]\django\TMD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A8C62D-1708-43DC-9D90-4BBFA7CA759B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9463BEC-408F-4173-B88F-0201CFCFBC61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A47664D8-99C6-40A6-841A-BD914C154716}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>jamii</t>
   </si>
   <si>
-    <t>Member</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -54,20 +51,65 @@
     <t xml:space="preserve">                                IMPORT SHARE FORMAT</t>
   </si>
   <si>
-    <t>WEEK 4</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Kamba</t>
+    <t>WEEK 1</t>
+  </si>
+  <si>
+    <t>Filbert</t>
+  </si>
+  <si>
+    <t>Member(username)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richard </t>
+  </si>
+  <si>
+    <t>Flora</t>
+  </si>
+  <si>
+    <t>Shumbusho</t>
+  </si>
+  <si>
+    <t>Beatrice</t>
+  </si>
+  <si>
+    <t>Firmin</t>
+  </si>
+  <si>
+    <t>Japhet</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Silvia</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Vedasto</t>
+  </si>
+  <si>
+    <t>Ndengati</t>
+  </si>
+  <si>
+    <t>Severine</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Philemon</t>
+  </si>
+  <si>
+    <t>Josephine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +133,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -112,10 +161,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,52 +480,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA00D82-D63F-40BB-A9CB-A64DE8929FDE}">
-  <dimension ref="A4:F12"/>
+  <dimension ref="A4:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="105" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="1:6" ht="31.2" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2020</v>
@@ -484,7 +541,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -504,12 +561,352 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2020</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2020</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2020</v>
+      </c>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2020</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2020</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2020</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>2020</v>
+      </c>
+      <c r="C25">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>2020</v>
+      </c>
+      <c r="C26">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>2020</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+      <c r="F29">
         <v>5000</v>
       </c>
     </row>
